--- a/Configs/Const.xlsx
+++ b/Configs/Const.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>*</t>
   </si>
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1010,14 +1010,11 @@
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="2:3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Configs/Const.xlsx
+++ b/Configs/Const.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>*</t>
   </si>
@@ -69,6 +69,72 @@
   </si>
   <si>
     <t>PasswordMaxLength</t>
+  </si>
+  <si>
+    <t>测试数据</t>
+  </si>
+  <si>
+    <t>TestInt</t>
+  </si>
+  <si>
+    <t>TestFloat</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>TestBool</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>TestLong</t>
+  </si>
+  <si>
+    <t>999999999999999</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>TestDouble</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>TestString</t>
+  </si>
+  <si>
+    <t>test string</t>
+  </si>
+  <si>
+    <t>TestVector2</t>
+  </si>
+  <si>
+    <t>(1,2)</t>
+  </si>
+  <si>
+    <t>Vector2</t>
+  </si>
+  <si>
+    <t>TestVector3</t>
+  </si>
+  <si>
+    <t>(1.1, 2, 0)</t>
+  </si>
+  <si>
+    <t>Vector3</t>
+  </si>
+  <si>
+    <t>TestDateTime</t>
+  </si>
+  <si>
+    <t>1/1/2025 10:00:00</t>
+  </si>
+  <si>
+    <t>DateTime</t>
   </si>
 </sst>
 </file>
@@ -684,8 +750,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -999,15 +1071,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -1110,6 +1183,137 @@
       </c>
       <c r="D9" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>254354.254354354</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
